--- a/ig/main/ValueSet-VS-Bacterial-intensinal-infectious.xlsx
+++ b/ig/main/ValueSet-VS-Bacterial-intensinal-infectious.xlsx
@@ -7,7 +7,7 @@
   </bookViews>
   <sheets>
     <sheet name="Metadata" r:id="rId3" sheetId="1"/>
-    <sheet name="Include from CIM-10" r:id="rId4" sheetId="2"/>
+    <sheet name="Include from terminologie-cim" r:id="rId4" sheetId="2"/>
   </sheets>
 </workbook>
 </file>

--- a/ig/main/ValueSet-VS-Bacterial-intensinal-infectious.xlsx
+++ b/ig/main/ValueSet-VS-Bacterial-intensinal-infectious.xlsx
@@ -30,7 +30,7 @@
     <t>Identifier</t>
   </si>
   <si>
-    <t>id: urn:oid:1Y.2Y.250.1.213.3.3.90</t>
+    <t>id: &lt;a href="http://terminology.hl7.org/5.3.0/NamingSystem-uri.html"&gt;Uniform Resource Identifier (URI)&lt;/a&gt;#urn:oid:1Y.2Y.250.1.213.3.3.90</t>
   </si>
   <si>
     <t>Version</t>

--- a/ig/main/ValueSet-VS-Bacterial-intensinal-infectious.xlsx
+++ b/ig/main/ValueSet-VS-Bacterial-intensinal-infectious.xlsx
@@ -7,7 +7,7 @@
   </bookViews>
   <sheets>
     <sheet name="Metadata" r:id="rId3" sheetId="1"/>
-    <sheet name="Include from terminologie-cim" r:id="rId4" sheetId="2"/>
+    <sheet name="Include from CIM-10" r:id="rId4" sheetId="2"/>
   </sheets>
 </workbook>
 </file>

--- a/ig/main/ValueSet-VS-Bacterial-intensinal-infectious.xlsx
+++ b/ig/main/ValueSet-VS-Bacterial-intensinal-infectious.xlsx
@@ -30,7 +30,7 @@
     <t>Identifier</t>
   </si>
   <si>
-    <t>id: &lt;a href="http://terminology.hl7.org/5.3.0/NamingSystem-uri.html"&gt;Uniform Resource Identifier (URI)&lt;/a&gt;#urn:oid:1Y.2Y.250.1.213.3.3.90</t>
+    <t>id: Uniform Resource Identifier (URI)#urn:oid:1Y.2Y.250.1.213.3.3.90</t>
   </si>
   <si>
     <t>Version</t>
